--- a/Symphony/2021/Others/Document/Expence/MC Expance April 2021.xlsx
+++ b/Symphony/2021/Others/Document/Expence/MC Expance April 2021.xlsx
@@ -837,6 +837,33 @@
     <xf numFmtId="2" fontId="7" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -853,33 +880,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,121 +1216,121 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="43" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1338,22 +1338,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2403,6 +2403,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -2419,9 +2422,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
